--- a/documentacion/matriz_trazabilidad_restric.xlsx
+++ b/documentacion/matriz_trazabilidad_restric.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrf1989/svn/repos/deporte_y_desafio/documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\zl39gm6lqwghg63nzf3\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E200B590-2693-DA4C-A29A-65CD63708DFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B472567-FB38-4612-B76A-8B66D8892473}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C2EE7D1D-F338-426B-A423-7D33316C0D14}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" xr2:uid="{C2EE7D1D-F338-426B-A423-7D33316C0D14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="RN" sheetId="1" r:id="rId1"/>
+    <sheet name="RI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,77 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>✔</t>
   </si>
   <si>
-    <t>Todo participante está representado por una persona en caso de no tener tutor legal</t>
-  </si>
-  <si>
-    <t>Si el participante es menor de edad o tiene más de 0.5 de grado de discapacidad debe tener un tutor legal</t>
-  </si>
-  <si>
-    <t>El grado de discapacidad es un real entre 0 y 1</t>
-  </si>
-  <si>
-    <t>Los cuestionarios solo los pueden responder participantes y voluntarios</t>
-  </si>
-  <si>
-    <t>R                                                                            RN</t>
-  </si>
-  <si>
-    <t>El mensaje tipo informe solo puede enviarse a los patrocinadores</t>
-  </si>
-  <si>
-    <t>No puede registrarse a un participante que no tenga al menos un informe médico</t>
-  </si>
-  <si>
-    <t>Un participante no se puede inscribir en una actividad si tiene alguna factura pendiente de pago</t>
-  </si>
-  <si>
-    <t>La donación no puede registrarse si no está relacionada con una persona o una institución</t>
-  </si>
-  <si>
-    <t>El coste de la inscripción está determinado por el porcentaje de los patrocinios en la cobertura de los costes</t>
-  </si>
-  <si>
-    <t>Un patrocinador ORO es aquel que financia al 100% un programa deportivo o un evento</t>
-  </si>
-  <si>
-    <t>Un patrocinador PLATA es aquel que financia parcialmente un programa deportivo</t>
-  </si>
-  <si>
-    <t>Un patrocinador BRONCE es aquel que financia parcialmente un evento</t>
-  </si>
-  <si>
-    <t>No se pueden registrar más participantes que número de plazas tiene una actividad</t>
-  </si>
-  <si>
-    <t>Es obligatorio responder a todas las preguntas realizadas en un cuestionario</t>
-  </si>
-  <si>
-    <t>El cuestionario puede responderse hasta 15 días después de su fecha de publicación</t>
-  </si>
-  <si>
-    <t>Si una actividad aparece en historial de actividades de un participante, este tiene prioridad de participación baja</t>
-  </si>
-  <si>
-    <t>Si una actividad no aparece en historial de actividades de un participante, este tiene prioridad de participación alta</t>
-  </si>
-  <si>
-    <t>La prioridad de participación media de un participante se determina por la mayor antigüedad sin participar en una actividad</t>
-  </si>
-  <si>
-    <t>Si una actividad aparece en historial de actividades de un voluntario, este tiene prioridad de participación alta</t>
-  </si>
-  <si>
-    <t>Si una actividad no aparece en historial de actividades de un voluntario, este tiene prioridad de participación media</t>
-  </si>
-  <si>
-    <t>Si el historial de actividades un voluntario está vacío, este tiene prioridad de participación bajo.</t>
-  </si>
-  <si>
     <t>RI-1</t>
   </si>
   <si>
@@ -175,13 +109,64 @@
     <t>RN-14</t>
   </si>
   <si>
-    <t>El sistema ofrece actividades a participantes y voluntarios con 2 meses de antelación como máximo</t>
-  </si>
-  <si>
     <t>RN-15</t>
   </si>
   <si>
-    <t>R                                                                            RI</t>
+    <t>R                                                                                    RN</t>
+  </si>
+  <si>
+    <t>El estado de interés en una actividad es 0 por defecto.</t>
+  </si>
+  <si>
+    <t>Prioridad de voluntariado será alta si ha participado en menos de tres meses, media si ha participado anteriormente, de lo contrario será baja.</t>
+  </si>
+  <si>
+    <t>Prioridad de participación será alta si nunca ha participado antes, media se hace tres meses que no participa, de lo contrario será baja.</t>
+  </si>
+  <si>
+    <t>El cuestionario puede responderse hasta 15 días después de su fecha de publicación.</t>
+  </si>
+  <si>
+    <t>Los cuestionarios solo los pueden responder participantes y voluntarios.</t>
+  </si>
+  <si>
+    <t>El número de voluntarios requeridos para una actividad está calculado en función del número de participantes inscritos en la misma.</t>
+  </si>
+  <si>
+    <t>No se pueden registrar más participantes que número de plazas tiene una actividad.</t>
+  </si>
+  <si>
+    <t>Un patrocinador BRONCE es aquel que financia parcialmente un evento.</t>
+  </si>
+  <si>
+    <t>Un patrocinador PLATA es aquel que financia parcialmente un programa deportivo.</t>
+  </si>
+  <si>
+    <t>Un patrocinador ORO es aquel que financia al 100% un programa deportivo o un evento.</t>
+  </si>
+  <si>
+    <t>El coste de la inscripción está determinado por el porcentaje de los patrocinios en la cobertura de los costes.</t>
+  </si>
+  <si>
+    <t>La donación no puede registrarse si no está relacionada con una persona o una institución.</t>
+  </si>
+  <si>
+    <t>Un participante no se puede inscribir en una actividad si tiene alguna factura pendiente de pago.</t>
+  </si>
+  <si>
+    <t>El grado de discapacidad es un real entre 0 y 1.</t>
+  </si>
+  <si>
+    <t>No puede registrarse a un participante que no tenga al menos un informe médico.</t>
+  </si>
+  <si>
+    <t>Si el participante es menor de edad o tiene más de 0.5 de grado de discapacidad debe tener un tutor legal.</t>
+  </si>
+  <si>
+    <t>El mensaje tipo informe solo puede enviarse a los patrocinadores.</t>
+  </si>
+  <si>
+    <t>R                                                                                    RI</t>
   </si>
 </sst>
 </file>
@@ -212,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -624,11 +609,108 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,14 +721,66 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -668,44 +802,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -713,83 +859,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,235 +1267,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B90E6D-9A1F-4025-B11D-FDF2B0AE3DF5}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16" width="7.33203125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16" width="7.28515625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>38</v>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+    </row>
+    <row r="3" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="50"/>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-    </row>
-    <row r="3" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="21"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="12"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="12"/>
+    <row r="9" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1341,160 +1503,164 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="21"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="56"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="12"/>
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="N10" s="17"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="12"/>
+    <row r="11" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="21"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="12"/>
+    <row r="13" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="21"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="56"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="12"/>
+    <row r="14" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="17" t="s">
         <v>0</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    <row r="15" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="12"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1504,388 +1670,260 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>18</v>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="45"/>
-      <c r="C19" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="33">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDC913E-CA7A-4241-80ED-ED8CABA9C934}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
-    <col min="3" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="1" customWidth="1"/>
+    <col min="3" max="14" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>26</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="12"/>
+    <row r="5" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1893,12 +1931,12 @@
       <c r="M5" s="2"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="12"/>
+    <row r="6" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1912,14 +1950,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="4"/>
-      <c r="P6" s="52"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="12"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,87 +1968,85 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="12"/>
+    <row r="9" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="12"/>
+    <row r="10" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="12"/>
+    <row r="11" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2022,17 +2058,15 @@
       <c r="M11" s="2"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2044,54 +2078,54 @@
       <c r="M12" s="2"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="12"/>
+    <row r="13" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="12"/>
+    <row r="14" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="12"/>
+      <c r="N14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2106,18 +2140,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="12"/>
+    <row r="16" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2126,18 +2158,18 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2146,178 +2178,56 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="48"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="30">
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -2329,6 +2239,23 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
